--- a/data/134/DEUSTATIS/old/New orders (value and volume index) in the main construction industry - 1991.xlsx
+++ b/data/134/DEUSTATIS/old/New orders (value and volume index) in the main construction industry - 1991.xlsx
@@ -175,7 +175,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 10:03:46</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 10:58:51</t>
   </si>
 </sst>
 </file>
@@ -32201,16 +32201,16 @@
         <v>102.4</v>
       </c>
       <c r="DH79" t="n" s="10">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="DI79" t="n" s="10">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="DJ79" t="n" s="10">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="DK79" t="n" s="10">
-        <v>101.0</v>
+        <v>101.1</v>
       </c>
       <c r="DL79" t="n" s="10">
         <v>100.2</v>
@@ -32228,10 +32228,10 @@
         <v>100.0</v>
       </c>
       <c r="DQ79" t="n" s="10">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="DR79" t="n" s="10">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="DS79" t="n" s="10">
         <v>99.9</v>
@@ -32246,13 +32246,13 @@
         <v>91.4</v>
       </c>
       <c r="DW79" t="n" s="10">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="DX79" t="n" s="10">
-        <v>98.5</v>
+        <v>98.4</v>
       </c>
       <c r="DY79" t="n" s="10">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="DZ79" t="n" s="10">
         <v>93.7</v>
@@ -32261,7 +32261,7 @@
         <v>97.0</v>
       </c>
       <c r="EB79" t="n" s="10">
-        <v>91.6</v>
+        <v>91.7</v>
       </c>
       <c r="EC79" t="n" s="10">
         <v>93.0</v>
@@ -32270,7 +32270,7 @@
         <v>92.7</v>
       </c>
       <c r="EE79" t="n" s="10">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="80">
@@ -32605,7 +32605,7 @@
         <v>129.4</v>
       </c>
       <c r="DH80" t="n" s="10">
-        <v>129.5</v>
+        <v>129.6</v>
       </c>
       <c r="DI80" t="n" s="10">
         <v>128.7</v>
@@ -32614,7 +32614,7 @@
         <v>131.9</v>
       </c>
       <c r="DK80" t="n" s="10">
-        <v>126.6</v>
+        <v>126.7</v>
       </c>
       <c r="DL80" t="n" s="10">
         <v>125.6</v>
@@ -32635,7 +32635,7 @@
         <v>123.2</v>
       </c>
       <c r="DR80" t="n" s="10">
-        <v>120.7</v>
+        <v>120.8</v>
       </c>
       <c r="DS80" t="n" s="10">
         <v>125.4</v>
@@ -33012,25 +33012,25 @@
         <v>108.4</v>
       </c>
       <c r="DH81" t="n" s="10">
+        <v>110.6</v>
+      </c>
+      <c r="DI81" t="n" s="10">
+        <v>111.3</v>
+      </c>
+      <c r="DJ81" t="n" s="10">
+        <v>113.7</v>
+      </c>
+      <c r="DK81" t="n" s="10">
+        <v>109.3</v>
+      </c>
+      <c r="DL81" t="n" s="10">
         <v>110.5</v>
-      </c>
-      <c r="DI81" t="n" s="10">
-        <v>111.4</v>
-      </c>
-      <c r="DJ81" t="n" s="10">
-        <v>113.8</v>
-      </c>
-      <c r="DK81" t="n" s="10">
-        <v>109.2</v>
-      </c>
-      <c r="DL81" t="n" s="10">
-        <v>110.6</v>
       </c>
       <c r="DM81" t="n" s="10">
         <v>103.6</v>
       </c>
       <c r="DN81" t="n" s="10">
-        <v>108.9</v>
+        <v>109.0</v>
       </c>
       <c r="DO81" t="n" s="10">
         <v>101.9</v>
@@ -33039,7 +33039,7 @@
         <v>108.1</v>
       </c>
       <c r="DQ81" t="n" s="10">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="DR81" t="n" s="10">
         <v>103.3</v>
@@ -33063,16 +33063,16 @@
         <v>102.5</v>
       </c>
       <c r="DY81" t="n" s="10">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="DZ81" t="n" s="10">
         <v>98.3</v>
       </c>
       <c r="EA81" t="n" s="10">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="EB81" t="n" s="10">
-        <v>95.9</v>
+        <v>96.0</v>
       </c>
       <c r="EC81" t="n" s="10">
         <v>97.6</v>
@@ -33081,7 +33081,7 @@
         <v>95.2</v>
       </c>
       <c r="EE81" t="n" s="10">
-        <v>88.6</v>
+        <v>88.7</v>
       </c>
     </row>
     <row r="82">
@@ -33422,7 +33422,7 @@
         <v>138.2</v>
       </c>
       <c r="DJ82" t="n" s="10">
-        <v>141.0</v>
+        <v>140.9</v>
       </c>
       <c r="DK82" t="n" s="10">
         <v>134.9</v>
@@ -33443,13 +33443,13 @@
         <v>134.3</v>
       </c>
       <c r="DQ82" t="n" s="10">
-        <v>129.9</v>
+        <v>130.0</v>
       </c>
       <c r="DR82" t="n" s="10">
         <v>128.4</v>
       </c>
       <c r="DS82" t="n" s="10">
-        <v>133.3</v>
+        <v>133.2</v>
       </c>
       <c r="DT82" t="n" s="10">
         <v>132.2</v>
@@ -33461,7 +33461,7 @@
         <v>118.4</v>
       </c>
       <c r="DW82" t="n" s="10">
-        <v>128.0</v>
+        <v>128.1</v>
       </c>
       <c r="DX82" t="n" s="10">
         <v>128.2</v>
@@ -33470,13 +33470,13 @@
         <v>130.8</v>
       </c>
       <c r="DZ82" t="n" s="10">
-        <v>122.9</v>
+        <v>123.0</v>
       </c>
       <c r="EA82" t="n" s="10">
         <v>126.8</v>
       </c>
       <c r="EB82" t="n" s="10">
-        <v>120.0</v>
+        <v>120.1</v>
       </c>
       <c r="EC82" t="n" s="10">
         <v>122.5</v>
@@ -33823,67 +33823,67 @@
         <v>114.5</v>
       </c>
       <c r="DH83" t="n" s="10">
-        <v>108.7</v>
+        <v>108.9</v>
       </c>
       <c r="DI83" t="n" s="10">
-        <v>107.3</v>
+        <v>107.1</v>
       </c>
       <c r="DJ83" t="n" s="10">
-        <v>115.1</v>
+        <v>114.9</v>
       </c>
       <c r="DK83" t="n" s="10">
-        <v>108.5</v>
+        <v>108.8</v>
       </c>
       <c r="DL83" t="n" s="10">
-        <v>103.0</v>
+        <v>102.9</v>
       </c>
       <c r="DM83" t="n" s="10">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="DN83" t="n" s="10">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="DO83" t="n" s="10">
         <v>100.3</v>
       </c>
       <c r="DP83" t="n" s="10">
-        <v>96.5</v>
+        <v>96.4</v>
       </c>
       <c r="DQ83" t="n" s="10">
-        <v>96.2</v>
+        <v>96.4</v>
       </c>
       <c r="DR83" t="n" s="10">
         <v>95.2</v>
       </c>
       <c r="DS83" t="n" s="10">
-        <v>93.4</v>
+        <v>93.3</v>
       </c>
       <c r="DT83" t="n" s="10">
         <v>92.2</v>
       </c>
       <c r="DU83" t="n" s="10">
-        <v>90.0</v>
+        <v>90.1</v>
       </c>
       <c r="DV83" t="n" s="10">
-        <v>88.3</v>
+        <v>88.2</v>
       </c>
       <c r="DW83" t="n" s="10">
-        <v>86.1</v>
+        <v>86.3</v>
       </c>
       <c r="DX83" t="n" s="10">
-        <v>89.0</v>
+        <v>88.9</v>
       </c>
       <c r="DY83" t="n" s="10">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="DZ83" t="n" s="10">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="EA83" t="n" s="10">
-        <v>83.0</v>
+        <v>82.9</v>
       </c>
       <c r="EB83" t="n" s="10">
-        <v>83.4</v>
+        <v>83.6</v>
       </c>
       <c r="EC83" t="n" s="10">
         <v>81.0</v>
@@ -33892,7 +33892,7 @@
         <v>74.6</v>
       </c>
       <c r="EE83" t="n" s="10">
-        <v>73.3</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="84">
@@ -34227,76 +34227,76 @@
         <v>140.4</v>
       </c>
       <c r="DH84" t="n" s="10">
-        <v>132.3</v>
+        <v>132.9</v>
       </c>
       <c r="DI84" t="n" s="10">
-        <v>130.6</v>
+        <v>131.2</v>
       </c>
       <c r="DJ84" t="n" s="10">
-        <v>140.0</v>
+        <v>140.6</v>
       </c>
       <c r="DK84" t="n" s="10">
-        <v>132.0</v>
+        <v>132.6</v>
       </c>
       <c r="DL84" t="n" s="10">
-        <v>125.4</v>
+        <v>126.0</v>
       </c>
       <c r="DM84" t="n" s="10">
-        <v>128.2</v>
+        <v>121.6</v>
       </c>
       <c r="DN84" t="n" s="10">
-        <v>128.7</v>
+        <v>129.3</v>
       </c>
       <c r="DO84" t="n" s="10">
-        <v>122.5</v>
+        <v>123.1</v>
       </c>
       <c r="DP84" t="n" s="10">
-        <v>117.8</v>
+        <v>118.4</v>
       </c>
       <c r="DQ84" t="n" s="10">
-        <v>117.5</v>
+        <v>118.1</v>
       </c>
       <c r="DR84" t="n" s="10">
-        <v>116.4</v>
+        <v>117.0</v>
       </c>
       <c r="DS84" t="n" s="10">
-        <v>114.4</v>
+        <v>114.9</v>
       </c>
       <c r="DT84" t="n" s="10">
-        <v>113.0</v>
+        <v>113.6</v>
       </c>
       <c r="DU84" t="n" s="10">
-        <v>110.3</v>
+        <v>110.9</v>
       </c>
       <c r="DV84" t="n" s="10">
-        <v>108.2</v>
+        <v>108.9</v>
       </c>
       <c r="DW84" t="n" s="10">
-        <v>105.5</v>
+        <v>106.2</v>
       </c>
       <c r="DX84" t="n" s="10">
-        <v>109.2</v>
+        <v>109.9</v>
       </c>
       <c r="DY84" t="n" s="10">
-        <v>119.8</v>
+        <v>113.2</v>
       </c>
       <c r="DZ84" t="n" s="10">
-        <v>102.3</v>
+        <v>102.9</v>
       </c>
       <c r="EA84" t="n" s="10">
-        <v>102.0</v>
+        <v>102.7</v>
       </c>
       <c r="EB84" t="n" s="10">
-        <v>102.6</v>
+        <v>103.2</v>
       </c>
       <c r="EC84" t="n" s="10">
-        <v>99.8</v>
+        <v>100.3</v>
       </c>
       <c r="ED84" t="n" s="10">
-        <v>92.0</v>
+        <v>92.5</v>
       </c>
       <c r="EE84" t="n" s="10">
-        <v>90.5</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="85">
@@ -34634,58 +34634,58 @@
         <v>104.4</v>
       </c>
       <c r="DH85" t="n" s="10">
-        <v>111.9</v>
+        <v>112.0</v>
       </c>
       <c r="DI85" t="n" s="10">
-        <v>114.2</v>
+        <v>114.1</v>
       </c>
       <c r="DJ85" t="n" s="10">
-        <v>116.8</v>
+        <v>116.7</v>
       </c>
       <c r="DK85" t="n" s="10">
-        <v>109.7</v>
+        <v>109.8</v>
       </c>
       <c r="DL85" t="n" s="10">
-        <v>115.9</v>
+        <v>115.7</v>
       </c>
       <c r="DM85" t="n" s="10">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="DN85" t="n" s="10">
-        <v>110.9</v>
+        <v>111.0</v>
       </c>
       <c r="DO85" t="n" s="10">
         <v>102.3</v>
       </c>
       <c r="DP85" t="n" s="10">
-        <v>115.2</v>
+        <v>115.1</v>
       </c>
       <c r="DQ85" t="n" s="10">
-        <v>109.5</v>
+        <v>109.6</v>
       </c>
       <c r="DR85" t="n" s="10">
         <v>107.7</v>
       </c>
       <c r="DS85" t="n" s="10">
-        <v>114.9</v>
+        <v>114.8</v>
       </c>
       <c r="DT85" t="n" s="10">
         <v>114.6</v>
       </c>
       <c r="DU85" t="n" s="10">
-        <v>104.9</v>
+        <v>105.0</v>
       </c>
       <c r="DV85" t="n" s="10">
         <v>110.0</v>
       </c>
       <c r="DW85" t="n" s="10">
-        <v>113.3</v>
+        <v>113.4</v>
       </c>
       <c r="DX85" t="n" s="10">
-        <v>111.2</v>
+        <v>111.1</v>
       </c>
       <c r="DY85" t="n" s="10">
-        <v>112.9</v>
+        <v>113.0</v>
       </c>
       <c r="DZ85" t="n" s="10">
         <v>107.9</v>
@@ -34694,16 +34694,16 @@
         <v>112.6</v>
       </c>
       <c r="EB85" t="n" s="10">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="EC85" t="n" s="10">
-        <v>107.9</v>
+        <v>107.8</v>
       </c>
       <c r="ED85" t="n" s="10">
-        <v>108.1</v>
+        <v>108.0</v>
       </c>
       <c r="EE85" t="n" s="10">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
     </row>
     <row r="86">
@@ -35038,76 +35038,76 @@
         <v>131.1</v>
       </c>
       <c r="DH86" t="n" s="10">
-        <v>139.1</v>
+        <v>139.7</v>
       </c>
       <c r="DI86" t="n" s="10">
-        <v>142.4</v>
+        <v>142.7</v>
       </c>
       <c r="DJ86" t="n" s="10">
-        <v>145.5</v>
+        <v>145.7</v>
       </c>
       <c r="DK86" t="n" s="10">
-        <v>136.2</v>
+        <v>136.8</v>
       </c>
       <c r="DL86" t="n" s="10">
-        <v>149.1</v>
+        <v>144.7</v>
       </c>
       <c r="DM86" t="n" s="10">
-        <v>132.0</v>
+        <v>132.6</v>
       </c>
       <c r="DN86" t="n" s="10">
-        <v>137.8</v>
+        <v>138.5</v>
       </c>
       <c r="DO86" t="n" s="10">
-        <v>127.4</v>
+        <v>127.9</v>
       </c>
       <c r="DP86" t="n" s="10">
-        <v>143.7</v>
+        <v>144.0</v>
       </c>
       <c r="DQ86" t="n" s="10">
+        <v>137.0</v>
+      </c>
+      <c r="DR86" t="n" s="10">
+        <v>134.8</v>
+      </c>
+      <c r="DS86" t="n" s="10">
+        <v>144.0</v>
+      </c>
+      <c r="DT86" t="n" s="10">
+        <v>143.8</v>
+      </c>
+      <c r="DU86" t="n" s="10">
+        <v>131.8</v>
+      </c>
+      <c r="DV86" t="n" s="10">
+        <v>138.2</v>
+      </c>
+      <c r="DW86" t="n" s="10">
+        <v>142.3</v>
+      </c>
+      <c r="DX86" t="n" s="10">
+        <v>139.9</v>
+      </c>
+      <c r="DY86" t="n" s="10">
+        <v>142.1</v>
+      </c>
+      <c r="DZ86" t="n" s="10">
+        <v>135.9</v>
+      </c>
+      <c r="EA86" t="n" s="10">
+        <v>142.0</v>
+      </c>
+      <c r="EB86" t="n" s="10">
+        <v>130.5</v>
+      </c>
+      <c r="EC86" t="n" s="10">
+        <v>136.3</v>
+      </c>
+      <c r="ED86" t="n" s="10">
         <v>136.6</v>
       </c>
-      <c r="DR86" t="n" s="10">
-        <v>134.5</v>
-      </c>
-      <c r="DS86" t="n" s="10">
-        <v>143.9</v>
-      </c>
-      <c r="DT86" t="n" s="10">
-        <v>143.6</v>
-      </c>
-      <c r="DU86" t="n" s="10">
-        <v>131.6</v>
-      </c>
-      <c r="DV86" t="n" s="10">
-        <v>138.1</v>
-      </c>
-      <c r="DW86" t="n" s="10">
-        <v>142.0</v>
-      </c>
-      <c r="DX86" t="n" s="10">
-        <v>142.1</v>
-      </c>
-      <c r="DY86" t="n" s="10">
-        <v>141.8</v>
-      </c>
-      <c r="DZ86" t="n" s="10">
-        <v>135.5</v>
-      </c>
-      <c r="EA86" t="n" s="10">
-        <v>141.8</v>
-      </c>
-      <c r="EB86" t="n" s="10">
-        <v>130.2</v>
-      </c>
-      <c r="EC86" t="n" s="10">
-        <v>136.1</v>
-      </c>
-      <c r="ED86" t="n" s="10">
-        <v>136.5</v>
-      </c>
       <c r="EE86" t="n" s="10">
-        <v>123.4</v>
+        <v>123.6</v>
       </c>
     </row>
     <row r="87">
@@ -35445,67 +35445,67 @@
         <v>100.9</v>
       </c>
       <c r="DH87" t="n" s="10">
-        <v>107.0</v>
+        <v>107.2</v>
       </c>
       <c r="DI87" t="n" s="10">
-        <v>113.9</v>
+        <v>113.7</v>
       </c>
       <c r="DJ87" t="n" s="10">
-        <v>114.8</v>
+        <v>114.7</v>
       </c>
       <c r="DK87" t="n" s="10">
-        <v>106.9</v>
+        <v>107.1</v>
       </c>
       <c r="DL87" t="n" s="10">
-        <v>116.6</v>
+        <v>116.5</v>
       </c>
       <c r="DM87" t="n" s="10">
         <v>111.5</v>
       </c>
       <c r="DN87" t="n" s="10">
-        <v>112.1</v>
+        <v>112.2</v>
       </c>
       <c r="DO87" t="n" s="10">
         <v>100.7</v>
       </c>
       <c r="DP87" t="n" s="10">
-        <v>116.6</v>
+        <v>116.5</v>
       </c>
       <c r="DQ87" t="n" s="10">
-        <v>113.8</v>
+        <v>114.0</v>
       </c>
       <c r="DR87" t="n" s="10">
         <v>108.7</v>
       </c>
       <c r="DS87" t="n" s="10">
-        <v>111.8</v>
+        <v>111.7</v>
       </c>
       <c r="DT87" t="n" s="10">
         <v>117.3</v>
       </c>
       <c r="DU87" t="n" s="10">
-        <v>105.0</v>
+        <v>105.1</v>
       </c>
       <c r="DV87" t="n" s="10">
         <v>110.6</v>
       </c>
       <c r="DW87" t="n" s="10">
-        <v>116.2</v>
+        <v>116.3</v>
       </c>
       <c r="DX87" t="n" s="10">
-        <v>111.3</v>
+        <v>111.2</v>
       </c>
       <c r="DY87" t="n" s="10">
-        <v>108.6</v>
+        <v>108.7</v>
       </c>
       <c r="DZ87" t="n" s="10">
         <v>108.0</v>
       </c>
       <c r="EA87" t="n" s="10">
-        <v>116.0</v>
+        <v>115.9</v>
       </c>
       <c r="EB87" t="n" s="10">
-        <v>103.9</v>
+        <v>104.0</v>
       </c>
       <c r="EC87" t="n" s="10">
         <v>103.8</v>
@@ -35514,7 +35514,7 @@
         <v>108.6</v>
       </c>
       <c r="EE87" t="n" s="10">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
     </row>
     <row r="88">
@@ -37067,10 +37067,10 @@
         <v>95.3</v>
       </c>
       <c r="DH91" t="n" s="10">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="DI91" t="n" s="10">
-        <v>92.1</v>
+        <v>92.0</v>
       </c>
       <c r="DJ91" t="n" s="10">
         <v>94.8</v>
@@ -37082,13 +37082,13 @@
         <v>87.8</v>
       </c>
       <c r="DM91" t="n" s="10">
-        <v>86.1</v>
+        <v>86.2</v>
       </c>
       <c r="DN91" t="n" s="10">
-        <v>91.5</v>
+        <v>91.6</v>
       </c>
       <c r="DO91" t="n" s="10">
-        <v>87.6</v>
+        <v>87.7</v>
       </c>
       <c r="DP91" t="n" s="10">
         <v>90.4</v>
@@ -37100,7 +37100,7 @@
         <v>88.3</v>
       </c>
       <c r="DS91" t="n" s="10">
-        <v>91.7</v>
+        <v>91.6</v>
       </c>
       <c r="DT91" t="n" s="10">
         <v>86.2</v>
@@ -37127,7 +37127,7 @@
         <v>92.1</v>
       </c>
       <c r="EB91" t="n" s="10">
-        <v>86.9</v>
+        <v>87.0</v>
       </c>
       <c r="EC91" t="n" s="10">
         <v>87.5</v>
@@ -37471,13 +37471,13 @@
         <v>122.4</v>
       </c>
       <c r="DH92" t="n" s="10">
-        <v>121.1</v>
+        <v>121.2</v>
       </c>
       <c r="DI92" t="n" s="10">
         <v>117.6</v>
       </c>
       <c r="DJ92" t="n" s="10">
-        <v>121.4</v>
+        <v>121.3</v>
       </c>
       <c r="DK92" t="n" s="10">
         <v>117.0</v>
@@ -37498,7 +37498,7 @@
         <v>115.0</v>
       </c>
       <c r="DQ92" t="n" s="10">
-        <v>115.3</v>
+        <v>115.4</v>
       </c>
       <c r="DR92" t="n" s="10">
         <v>111.8</v>
@@ -37878,76 +37878,76 @@
         <v>86.8</v>
       </c>
       <c r="DH93" t="n" s="10">
-        <v>90.7</v>
+        <v>90.9</v>
       </c>
       <c r="DI93" t="n" s="10">
-        <v>87.3</v>
+        <v>87.1</v>
       </c>
       <c r="DJ93" t="n" s="10">
-        <v>90.3</v>
+        <v>90.1</v>
       </c>
       <c r="DK93" t="n" s="10">
-        <v>85.9</v>
+        <v>86.1</v>
       </c>
       <c r="DL93" t="n" s="10">
-        <v>79.7</v>
+        <v>79.4</v>
       </c>
       <c r="DM93" t="n" s="10">
         <v>81.9</v>
       </c>
       <c r="DN93" t="n" s="10">
-        <v>87.4</v>
+        <v>87.7</v>
       </c>
       <c r="DO93" t="n" s="10">
-        <v>81.4</v>
+        <v>81.5</v>
       </c>
       <c r="DP93" t="n" s="10">
-        <v>85.3</v>
+        <v>85.2</v>
       </c>
       <c r="DQ93" t="n" s="10">
-        <v>82.4</v>
+        <v>82.6</v>
       </c>
       <c r="DR93" t="n" s="10">
         <v>84.7</v>
       </c>
       <c r="DS93" t="n" s="10">
-        <v>89.7</v>
+        <v>89.5</v>
       </c>
       <c r="DT93" t="n" s="10">
         <v>79.9</v>
       </c>
       <c r="DU93" t="n" s="10">
-        <v>81.4</v>
+        <v>81.5</v>
       </c>
       <c r="DV93" t="n" s="10">
-        <v>84.5</v>
+        <v>84.4</v>
       </c>
       <c r="DW93" t="n" s="10">
-        <v>86.0</v>
+        <v>86.2</v>
       </c>
       <c r="DX93" t="n" s="10">
-        <v>89.5</v>
+        <v>89.4</v>
       </c>
       <c r="DY93" t="n" s="10">
-        <v>87.1</v>
+        <v>87.3</v>
       </c>
       <c r="DZ93" t="n" s="10">
-        <v>84.5</v>
+        <v>84.6</v>
       </c>
       <c r="EA93" t="n" s="10">
-        <v>88.8</v>
+        <v>88.7</v>
       </c>
       <c r="EB93" t="n" s="10">
-        <v>84.6</v>
+        <v>84.8</v>
       </c>
       <c r="EC93" t="n" s="10">
-        <v>86.4</v>
+        <v>86.3</v>
       </c>
       <c r="ED93" t="n" s="10">
         <v>82.6</v>
       </c>
       <c r="EE93" t="n" s="10">
-        <v>83.5</v>
+        <v>83.8</v>
       </c>
     </row>
     <row r="94">
@@ -38282,16 +38282,16 @@
         <v>114.3</v>
       </c>
       <c r="DH94" t="n" s="10">
-        <v>117.9</v>
+        <v>118.0</v>
       </c>
       <c r="DI94" t="n" s="10">
-        <v>113.7</v>
+        <v>113.6</v>
       </c>
       <c r="DJ94" t="n" s="10">
         <v>118.0</v>
       </c>
       <c r="DK94" t="n" s="10">
-        <v>111.8</v>
+        <v>111.9</v>
       </c>
       <c r="DL94" t="n" s="10">
         <v>103.6</v>
@@ -38300,13 +38300,13 @@
         <v>106.3</v>
       </c>
       <c r="DN94" t="n" s="10">
-        <v>113.2</v>
+        <v>113.3</v>
       </c>
       <c r="DO94" t="n" s="10">
         <v>105.0</v>
       </c>
       <c r="DP94" t="n" s="10">
-        <v>110.1</v>
+        <v>110.0</v>
       </c>
       <c r="DQ94" t="n" s="10">
         <v>106.0</v>
@@ -38315,7 +38315,7 @@
         <v>108.6</v>
       </c>
       <c r="DS94" t="n" s="10">
-        <v>115.1</v>
+        <v>115.0</v>
       </c>
       <c r="DT94" t="n" s="10">
         <v>102.6</v>
@@ -38333,16 +38333,16 @@
         <v>114.9</v>
       </c>
       <c r="DY94" t="n" s="10">
-        <v>111.7</v>
+        <v>111.8</v>
       </c>
       <c r="DZ94" t="n" s="10">
-        <v>108.4</v>
+        <v>108.5</v>
       </c>
       <c r="EA94" t="n" s="10">
         <v>114.0</v>
       </c>
       <c r="EB94" t="n" s="10">
-        <v>108.4</v>
+        <v>108.5</v>
       </c>
       <c r="EC94" t="n" s="10">
         <v>110.8</v>
@@ -38698,7 +38698,7 @@
         <v>97.4</v>
       </c>
       <c r="DK95" t="n" s="10">
-        <v>95.4</v>
+        <v>95.5</v>
       </c>
       <c r="DL95" t="n" s="10">
         <v>92.6</v>
@@ -38746,7 +38746,7 @@
         <v>90.7</v>
       </c>
       <c r="EA95" t="n" s="10">
-        <v>94.0</v>
+        <v>93.9</v>
       </c>
       <c r="EB95" t="n" s="10">
         <v>88.2</v>
@@ -38758,7 +38758,7 @@
         <v>94.0</v>
       </c>
       <c r="EE95" t="n" s="10">
-        <v>92.3</v>
+        <v>92.4</v>
       </c>
     </row>
     <row r="96">
@@ -39102,7 +39102,7 @@
         <v>123.1</v>
       </c>
       <c r="DK96" t="n" s="10">
-        <v>120.1</v>
+        <v>120.2</v>
       </c>
       <c r="DL96" t="n" s="10">
         <v>116.8</v>
@@ -39506,7 +39506,7 @@
         <v>90.9</v>
       </c>
       <c r="DJ97" t="n" s="10">
-        <v>83.1</v>
+        <v>83.0</v>
       </c>
       <c r="DK97" t="n" s="10">
         <v>79.0</v>
@@ -39518,7 +39518,7 @@
         <v>71.3</v>
       </c>
       <c r="DN97" t="n" s="10">
-        <v>77.6</v>
+        <v>77.7</v>
       </c>
       <c r="DO97" t="n" s="10">
         <v>77.1</v>
@@ -39548,7 +39548,7 @@
         <v>69.5</v>
       </c>
       <c r="DX97" t="n" s="10">
-        <v>79.4</v>
+        <v>79.3</v>
       </c>
       <c r="DY97" t="n" s="10">
         <v>80.3</v>
@@ -39560,7 +39560,7 @@
         <v>74.7</v>
       </c>
       <c r="EB97" t="n" s="10">
-        <v>74.3</v>
+        <v>74.4</v>
       </c>
       <c r="EC97" t="n" s="10">
         <v>74.8</v>
@@ -40323,7 +40323,7 @@
         <v>116.8</v>
       </c>
       <c r="DL99" t="n" s="10">
-        <v>115.2</v>
+        <v>115.1</v>
       </c>
       <c r="DM99" t="n" s="10">
         <v>111.2</v>
@@ -40338,7 +40338,7 @@
         <v>114.8</v>
       </c>
       <c r="DQ99" t="n" s="10">
-        <v>124.3</v>
+        <v>124.4</v>
       </c>
       <c r="DR99" t="n" s="10">
         <v>113.0</v>
@@ -41157,7 +41157,7 @@
         <v>97.5</v>
       </c>
       <c r="DR102" t="n" s="10">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="DS102" t="n" s="10">
         <v>96.9</v>
@@ -41193,7 +41193,7 @@
         <v>93.4</v>
       </c>
       <c r="ED102" t="n" s="10">
-        <v>92.8</v>
+        <v>92.9</v>
       </c>
       <c r="EE102" t="n" s="10">
         <v>92.2</v>
@@ -41555,7 +41555,7 @@
         <v>123.2</v>
       </c>
       <c r="DP103" t="n" s="10">
-        <v>122.6</v>
+        <v>122.7</v>
       </c>
       <c r="DQ103" t="n" s="10">
         <v>122.2</v>
@@ -41597,7 +41597,7 @@
         <v>117.9</v>
       </c>
       <c r="ED103" t="n" s="10">
-        <v>117.2</v>
+        <v>117.3</v>
       </c>
       <c r="EE103" t="n" s="10">
         <v>116.5</v>
@@ -41956,13 +41956,13 @@
         <v>107.5</v>
       </c>
       <c r="DN104" t="n" s="10">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="DO104" t="n" s="10">
         <v>106.3</v>
       </c>
       <c r="DP104" t="n" s="10">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="DQ104" t="n" s="10">
         <v>104.9</v>
@@ -41992,7 +41992,7 @@
         <v>100.2</v>
       </c>
       <c r="DZ104" t="n" s="10">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="EA104" t="n" s="10">
         <v>98.5</v>
@@ -42399,7 +42399,7 @@
         <v>124.4</v>
       </c>
       <c r="EA105" t="n" s="10">
-        <v>123.3</v>
+        <v>123.4</v>
       </c>
       <c r="EB105" t="n" s="10">
         <v>122.3</v>
@@ -42408,7 +42408,7 @@
         <v>121.0</v>
       </c>
       <c r="ED105" t="n" s="10">
-        <v>119.5</v>
+        <v>119.6</v>
       </c>
       <c r="EE105" t="n" s="10">
         <v>118.0</v>
@@ -42785,13 +42785,13 @@
         <v>93.8</v>
       </c>
       <c r="DT106" t="n" s="10">
-        <v>92.3</v>
+        <v>92.4</v>
       </c>
       <c r="DU106" t="n" s="10">
         <v>90.9</v>
       </c>
       <c r="DV106" t="n" s="10">
-        <v>89.4</v>
+        <v>89.5</v>
       </c>
       <c r="DW106" t="n" s="10">
         <v>88.2</v>
@@ -42806,19 +42806,19 @@
         <v>84.5</v>
       </c>
       <c r="EA106" t="n" s="10">
-        <v>83.1</v>
+        <v>83.2</v>
       </c>
       <c r="EB106" t="n" s="10">
-        <v>81.8</v>
+        <v>81.9</v>
       </c>
       <c r="EC106" t="n" s="10">
         <v>80.3</v>
       </c>
       <c r="ED106" t="n" s="10">
-        <v>78.6</v>
+        <v>78.7</v>
       </c>
       <c r="EE106" t="n" s="10">
-        <v>77.2</v>
+        <v>77.3</v>
       </c>
     </row>
     <row r="107">
@@ -43153,76 +43153,76 @@
         <v>141.3</v>
       </c>
       <c r="DH107" t="n" s="10">
-        <v>135.3</v>
+        <v>135.6</v>
       </c>
       <c r="DI107" t="n" s="10">
-        <v>133.4</v>
+        <v>133.6</v>
       </c>
       <c r="DJ107" t="n" s="10">
         <v>131.9</v>
       </c>
       <c r="DK107" t="n" s="10">
-        <v>130.5</v>
+        <v>130.2</v>
       </c>
       <c r="DL107" t="n" s="10">
-        <v>128.9</v>
+        <v>128.4</v>
       </c>
       <c r="DM107" t="n" s="10">
-        <v>127.2</v>
+        <v>126.5</v>
       </c>
       <c r="DN107" t="n" s="10">
-        <v>125.3</v>
+        <v>124.7</v>
       </c>
       <c r="DO107" t="n" s="10">
-        <v>122.9</v>
+        <v>122.5</v>
       </c>
       <c r="DP107" t="n" s="10">
-        <v>120.8</v>
+        <v>120.7</v>
       </c>
       <c r="DQ107" t="n" s="10">
         <v>118.8</v>
       </c>
       <c r="DR107" t="n" s="10">
-        <v>116.8</v>
+        <v>117.1</v>
       </c>
       <c r="DS107" t="n" s="10">
-        <v>114.9</v>
+        <v>115.4</v>
       </c>
       <c r="DT107" t="n" s="10">
-        <v>112.9</v>
+        <v>113.6</v>
       </c>
       <c r="DU107" t="n" s="10">
-        <v>110.9</v>
+        <v>111.9</v>
       </c>
       <c r="DV107" t="n" s="10">
-        <v>109.1</v>
+        <v>110.3</v>
       </c>
       <c r="DW107" t="n" s="10">
-        <v>107.4</v>
+        <v>108.8</v>
       </c>
       <c r="DX107" t="n" s="10">
-        <v>106.0</v>
+        <v>107.6</v>
       </c>
       <c r="DY107" t="n" s="10">
+        <v>106.1</v>
+      </c>
+      <c r="DZ107" t="n" s="10">
         <v>104.5</v>
       </c>
-      <c r="DZ107" t="n" s="10">
+      <c r="EA107" t="n" s="10">
         <v>102.9</v>
       </c>
-      <c r="EA107" t="n" s="10">
-        <v>101.5</v>
-      </c>
       <c r="EB107" t="n" s="10">
-        <v>100.1</v>
+        <v>101.3</v>
       </c>
       <c r="EC107" t="n" s="10">
-        <v>98.4</v>
+        <v>99.4</v>
       </c>
       <c r="ED107" t="n" s="10">
-        <v>96.6</v>
+        <v>97.4</v>
       </c>
       <c r="EE107" t="n" s="10">
-        <v>95.2</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="108">
@@ -43581,13 +43581,13 @@
         <v>110.2</v>
       </c>
       <c r="DO108" t="n" s="10">
-        <v>110.1</v>
+        <v>110.2</v>
       </c>
       <c r="DP108" t="n" s="10">
         <v>110.2</v>
       </c>
       <c r="DQ108" t="n" s="10">
-        <v>110.3</v>
+        <v>110.4</v>
       </c>
       <c r="DR108" t="n" s="10">
         <v>110.5</v>
@@ -43605,10 +43605,10 @@
         <v>110.9</v>
       </c>
       <c r="DW108" t="n" s="10">
-        <v>110.9</v>
+        <v>111.0</v>
       </c>
       <c r="DX108" t="n" s="10">
-        <v>110.7</v>
+        <v>110.8</v>
       </c>
       <c r="DY108" t="n" s="10">
         <v>110.2</v>
@@ -43617,13 +43617,13 @@
         <v>109.4</v>
       </c>
       <c r="EA108" t="n" s="10">
-        <v>108.2</v>
+        <v>108.3</v>
       </c>
       <c r="EB108" t="n" s="10">
         <v>107.0</v>
       </c>
       <c r="EC108" t="n" s="10">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="ED108" t="n" s="10">
         <v>104.2</v>
@@ -43964,70 +43964,70 @@
         <v>140.7</v>
       </c>
       <c r="DH109" t="n" s="10">
-        <v>140.6</v>
+        <v>141.6</v>
       </c>
       <c r="DI109" t="n" s="10">
-        <v>139.8</v>
+        <v>140.9</v>
       </c>
       <c r="DJ109" t="n" s="10">
-        <v>139.1</v>
+        <v>140.2</v>
       </c>
       <c r="DK109" t="n" s="10">
+        <v>139.3</v>
+      </c>
+      <c r="DL109" t="n" s="10">
+        <v>138.5</v>
+      </c>
+      <c r="DM109" t="n" s="10">
+        <v>137.8</v>
+      </c>
+      <c r="DN109" t="n" s="10">
+        <v>137.6</v>
+      </c>
+      <c r="DO109" t="n" s="10">
+        <v>137.6</v>
+      </c>
+      <c r="DP109" t="n" s="10">
+        <v>137.7</v>
+      </c>
+      <c r="DQ109" t="n" s="10">
         <v>138.0</v>
       </c>
-      <c r="DL109" t="n" s="10">
-        <v>137.1</v>
-      </c>
-      <c r="DM109" t="n" s="10">
-        <v>136.4</v>
-      </c>
-      <c r="DN109" t="n" s="10">
-        <v>136.2</v>
-      </c>
-      <c r="DO109" t="n" s="10">
-        <v>136.5</v>
-      </c>
-      <c r="DP109" t="n" s="10">
-        <v>136.9</v>
-      </c>
-      <c r="DQ109" t="n" s="10">
-        <v>137.4</v>
-      </c>
       <c r="DR109" t="n" s="10">
-        <v>137.8</v>
+        <v>138.3</v>
       </c>
       <c r="DS109" t="n" s="10">
-        <v>138.2</v>
+        <v>138.6</v>
       </c>
       <c r="DT109" t="n" s="10">
-        <v>138.7</v>
+        <v>138.9</v>
       </c>
       <c r="DU109" t="n" s="10">
         <v>139.2</v>
       </c>
       <c r="DV109" t="n" s="10">
-        <v>139.4</v>
+        <v>139.3</v>
       </c>
       <c r="DW109" t="n" s="10">
-        <v>139.6</v>
+        <v>139.5</v>
       </c>
       <c r="DX109" t="n" s="10">
-        <v>139.5</v>
+        <v>139.3</v>
       </c>
       <c r="DY109" t="n" s="10">
-        <v>138.8</v>
+        <v>138.7</v>
       </c>
       <c r="DZ109" t="n" s="10">
         <v>137.8</v>
       </c>
       <c r="EA109" t="n" s="10">
-        <v>136.4</v>
+        <v>136.5</v>
       </c>
       <c r="EB109" t="n" s="10">
-        <v>134.9</v>
+        <v>135.0</v>
       </c>
       <c r="EC109" t="n" s="10">
-        <v>133.3</v>
+        <v>133.4</v>
       </c>
       <c r="ED109" t="n" s="10">
         <v>131.6</v>
@@ -44398,7 +44398,7 @@
         <v>111.6</v>
       </c>
       <c r="DQ110" t="n" s="10">
-        <v>111.7</v>
+        <v>111.8</v>
       </c>
       <c r="DR110" t="n" s="10">
         <v>111.8</v>
@@ -44407,7 +44407,7 @@
         <v>111.9</v>
       </c>
       <c r="DT110" t="n" s="10">
-        <v>111.8</v>
+        <v>111.9</v>
       </c>
       <c r="DU110" t="n" s="10">
         <v>111.7</v>
@@ -44416,7 +44416,7 @@
         <v>111.5</v>
       </c>
       <c r="DW110" t="n" s="10">
-        <v>111.4</v>
+        <v>111.5</v>
       </c>
       <c r="DX110" t="n" s="10">
         <v>111.0</v>
@@ -44431,7 +44431,7 @@
         <v>108.3</v>
       </c>
       <c r="EB110" t="n" s="10">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="EC110" t="n" s="10">
         <v>105.3</v>
@@ -46014,7 +46014,7 @@
         <v>89.2</v>
       </c>
       <c r="DO114" t="n" s="10">
-        <v>89.1</v>
+        <v>89.2</v>
       </c>
       <c r="DP114" t="n" s="10">
         <v>89.0</v>
@@ -46053,7 +46053,7 @@
         <v>89.9</v>
       </c>
       <c r="EB114" t="n" s="10">
-        <v>89.9</v>
+        <v>90.0</v>
       </c>
       <c r="EC114" t="n" s="10">
         <v>90.0</v>
@@ -46406,7 +46406,7 @@
         <v>117.5</v>
       </c>
       <c r="DK115" t="n" s="10">
-        <v>116.2</v>
+        <v>116.3</v>
       </c>
       <c r="DL115" t="n" s="10">
         <v>115.1</v>
@@ -46810,7 +46810,7 @@
         <v>88.1</v>
       </c>
       <c r="DJ116" t="n" s="10">
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="DK116" t="n" s="10">
         <v>85.9</v>
@@ -46852,7 +46852,7 @@
         <v>85.3</v>
       </c>
       <c r="DX116" t="n" s="10">
-        <v>85.6</v>
+        <v>85.7</v>
       </c>
       <c r="DY116" t="n" s="10">
         <v>85.8</v>
@@ -46864,16 +46864,16 @@
         <v>86.0</v>
       </c>
       <c r="EB116" t="n" s="10">
-        <v>86.0</v>
+        <v>86.1</v>
       </c>
       <c r="EC116" t="n" s="10">
         <v>85.9</v>
       </c>
       <c r="ED116" t="n" s="10">
-        <v>85.8</v>
+        <v>85.9</v>
       </c>
       <c r="EE116" t="n" s="10">
-        <v>85.6</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="117">
@@ -47235,7 +47235,7 @@
         <v>107.6</v>
       </c>
       <c r="DQ117" t="n" s="10">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="DR117" t="n" s="10">
         <v>107.6</v>
@@ -47621,7 +47621,7 @@
         <v>95.7</v>
       </c>
       <c r="DJ118" t="n" s="10">
-        <v>95.0</v>
+        <v>95.1</v>
       </c>
       <c r="DK118" t="n" s="10">
         <v>94.3</v>
@@ -47666,7 +47666,7 @@
         <v>92.1</v>
       </c>
       <c r="DY118" t="n" s="10">
-        <v>92.1</v>
+        <v>92.2</v>
       </c>
       <c r="DZ118" t="n" s="10">
         <v>92.2</v>
@@ -48079,7 +48079,7 @@
         <v>116.5</v>
       </c>
       <c r="EB119" t="n" s="10">
-        <v>116.5</v>
+        <v>116.6</v>
       </c>
       <c r="EC119" t="n" s="10">
         <v>116.8</v>
@@ -49762,7 +49762,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 10:03:54&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 10:59:02&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>